--- a/output/below_50/tRNA-Thr-TGT-3-1.xlsx
+++ b/output/below_50/tRNA-Thr-TGT-3-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="87">
   <si>
     <t>chr14</t>
   </si>
@@ -273,231 +273,6 @@
   </si>
   <si>
     <t>44151115</t>
-  </si>
-  <si>
-    <t>21082003</t>
-  </si>
-  <si>
-    <t>21082026</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>21082006</t>
-  </si>
-  <si>
-    <t>ACGAGGGCTCCATAGCTCAG</t>
-  </si>
-  <si>
-    <t>100% (75)</t>
-  </si>
-  <si>
-    <t>94% (75)</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 29, Doench 2016: 100%, Moreno-Mateos: 94%</t>
-  </si>
-  <si>
-    <t>1.9675E+11</t>
-  </si>
-  <si>
-    <t>21082020</t>
-  </si>
-  <si>
-    <t>21082043</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>21082023</t>
-  </si>
-  <si>
-    <t>AGAGAAACTAAAAGCAGACG</t>
-  </si>
-  <si>
-    <t>12% (24)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 38, Doench 2016: 89%, Moreno-Mateos: 12%</t>
-  </si>
-  <si>
-    <t>1.15931E+11</t>
-  </si>
-  <si>
-    <t>21082284</t>
-  </si>
-  <si>
-    <t>21082307</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>21082304</t>
-  </si>
-  <si>
-    <t>TGTAAGAATTTCAGATCTTT</t>
-  </si>
-  <si>
-    <t>13% (34)</t>
-  </si>
-  <si>
-    <t>14% (26)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 46, Doench 2016: 13%, Moreno-Mateos: 14%</t>
-  </si>
-  <si>
-    <t>2.12278E+11</t>
-  </si>
-  <si>
-    <t>21082318</t>
-  </si>
-  <si>
-    <t>21082341</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>21082321</t>
-  </si>
-  <si>
-    <t>TCGGGAGGTGTGTGTGGGGG</t>
-  </si>
-  <si>
-    <t>18% (37)</t>
-  </si>
-  <si>
-    <t>100% (107)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 17, Doench 2016: 18%, Moreno-Mateos: 100%</t>
-  </si>
-  <si>
-    <t>38271612476</t>
-  </si>
-  <si>
-    <t>21082319</t>
-  </si>
-  <si>
-    <t>21082342</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>21082322</t>
-  </si>
-  <si>
-    <t>TTCGGGAGGTGTGTGTGGGG</t>
-  </si>
-  <si>
-    <t>16% (36)</t>
-  </si>
-  <si>
-    <t>97% (80)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 25, Doench 2016: 16%, Moreno-Mateos: 97%</t>
-  </si>
-  <si>
-    <t>91179063902</t>
-  </si>
-  <si>
-    <t>21082320</t>
-  </si>
-  <si>
-    <t>21082343</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21082323</t>
-  </si>
-  <si>
-    <t>TTTCGGGAGGTGTGTGTGGG</t>
-  </si>
-  <si>
-    <t>93% (73)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 20, Doench 2016: 16%, Moreno-Mateos: 93%</t>
-  </si>
-  <si>
-    <t>2.92584E+11</t>
-  </si>
-  <si>
-    <t>21082344</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>21082324</t>
-  </si>
-  <si>
-    <t>ATTTCGGGAGGTGTGTGTGG</t>
-  </si>
-  <si>
-    <t>98% (84)</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 37, Doench 2016: 30%, Moreno-Mateos: 98%</t>
-  </si>
-  <si>
-    <t>1.09254E+11</t>
-  </si>
-  <si>
-    <t>21082345</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>21082325</t>
-  </si>
-  <si>
-    <t>TATTTCGGGAGGTGTGTGTG</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>86% (65)</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 39, Doench 2016: 38%, Moreno-Mateos: 86%</t>
-  </si>
-  <si>
-    <t>3.40073E+11</t>
   </si>
 </sst>
 </file>
@@ -542,7 +317,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1025,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1052,31 +827,31 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="L9" t="s">
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="R9" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1084,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -1111,31 +886,31 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="S10" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1143,22 +918,22 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
         <v>6</v>
@@ -1170,31 +945,31 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L11" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="R11" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -1202,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
@@ -1229,31 +1004,31 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
         <v>9</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="Q12" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="S12" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -1261,22 +1036,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
@@ -1288,31 +1063,31 @@
         <v>7</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="Q13" t="s">
         <v>37</v>
       </c>
       <c r="R13" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="S13" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -1320,22 +1095,22 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -1347,31 +1122,31 @@
         <v>7</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="Q14" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
@@ -1379,22 +1154,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
@@ -1406,31 +1181,31 @@
         <v>7</v>
       </c>
       <c r="K15" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M15" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="N15" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="Q15" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -1438,22 +1213,22 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
@@ -1465,621 +1240,31 @@
         <v>7</v>
       </c>
       <c r="K16" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="O16" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="P16" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="Q16" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="R16" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" t="s">
-        <v>73</v>
-      </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" t="s">
-        <v>77</v>
-      </c>
-      <c r="S17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" t="s">
-        <v>85</v>
-      </c>
-      <c r="S18" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" t="s">
-        <v>6</v>
-      </c>
-      <c r="I19" t="s">
-        <v>6</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
-      </c>
-      <c r="M19" t="s">
-        <v>89</v>
-      </c>
-      <c r="N19" t="s">
-        <v>92</v>
-      </c>
-      <c r="O19" t="s">
-        <v>93</v>
-      </c>
-      <c r="P19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>95</v>
-      </c>
-      <c r="R19" t="s">
-        <v>96</v>
-      </c>
-      <c r="S19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O20" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" t="s">
-        <v>104</v>
-      </c>
-      <c r="S20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N21" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" t="s">
-        <v>115</v>
-      </c>
-      <c r="S21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" t="s">
-        <v>9</v>
-      </c>
-      <c r="M22" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" t="s">
-        <v>122</v>
-      </c>
-      <c r="O22" t="s">
-        <v>123</v>
-      </c>
-      <c r="P22" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R22" t="s">
-        <v>125</v>
-      </c>
-      <c r="S22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>130</v>
-      </c>
-      <c r="G23" t="s">
-        <v>128</v>
-      </c>
-      <c r="H23" t="s">
-        <v>6</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" t="s">
-        <v>9</v>
-      </c>
-      <c r="M23" t="s">
-        <v>129</v>
-      </c>
-      <c r="N23" t="s">
-        <v>132</v>
-      </c>
-      <c r="O23" t="s">
-        <v>133</v>
-      </c>
-      <c r="P23" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" t="s">
-        <v>135</v>
-      </c>
-      <c r="S23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" t="s">
-        <v>141</v>
-      </c>
-      <c r="L24" t="s">
-        <v>9</v>
-      </c>
-      <c r="M24" t="s">
-        <v>139</v>
-      </c>
-      <c r="N24" t="s">
-        <v>132</v>
-      </c>
-      <c r="O24" t="s">
-        <v>142</v>
-      </c>
-      <c r="P24" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>94</v>
-      </c>
-      <c r="R24" t="s">
-        <v>143</v>
-      </c>
-      <c r="S24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" t="s">
-        <v>146</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" t="s">
-        <v>145</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" t="s">
-        <v>146</v>
-      </c>
-      <c r="N25" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>151</v>
-      </c>
-      <c r="R25" t="s">
-        <v>152</v>
-      </c>
-      <c r="S25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" t="s">
-        <v>155</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" t="s">
-        <v>154</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" t="s">
-        <v>155</v>
-      </c>
-      <c r="N26" t="s">
-        <v>158</v>
-      </c>
-      <c r="O26" t="s">
-        <v>159</v>
-      </c>
-      <c r="P26" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" t="s">
-        <v>160</v>
-      </c>
-      <c r="S26" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
